--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/8/Tamaño de muestra.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/8/Tamaño de muestra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Vargas\Documents\GitHub\LaptopToPC\Ulatina\X - Cuatrimestre\Probabilidad y Estadistica\Semanas\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EF0343-33D1-4536-AA7D-C95FB48B5FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D2329-0709-49F3-A060-60F5ECE03F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>Error =</t>
   </si>
@@ -72,6 +74,24 @@
   </si>
   <si>
     <t>z=</t>
+  </si>
+  <si>
+    <t>u-niño</t>
+  </si>
+  <si>
+    <t>x-calorias</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n0</t>
+  </si>
+  <si>
+    <t>varianza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n0 </t>
   </si>
 </sst>
 </file>
@@ -430,7 +450,7 @@
   <dimension ref="C1:F6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +518,7 @@
   <dimension ref="C1:F10"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +608,7 @@
   <dimension ref="C1:F6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,10 +667,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C1:F10"/>
+  <dimension ref="C1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,31 +678,49 @@
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -695,8 +733,20 @@
       <c r="F4">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -704,16 +754,29 @@
         <f>D2*(1-D2)*(F4/D3)^2</f>
         <v>368.79359999999991</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f>J2*(1-J2)*(L4/J3)^2</f>
+        <v>928.81351111111087</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -721,13 +784,393 @@
         <f>D7/(1+(D7/D1))</f>
         <v>179.62447844228095</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f>J7/(1+(J7/J1))</f>
+        <v>90.281827016520907</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>180</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2C4B3B-C19F-403E-B855-E641B26AA13F}">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1">
+        <v>3000</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>100</v>
+      </c>
+      <c r="V1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(H2)</f>
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>6400</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>6.05</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>B6-B5</f>
+        <v>425</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>0.03</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>95</v>
+      </c>
+      <c r="Q4">
+        <v>0.95</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>95</v>
+      </c>
+      <c r="U4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>745</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>95</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>185</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>788</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D53E6-240E-469C-A63D-DE5B601E1A1D}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>1.96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>95</v>
+      </c>
+      <c r="H4">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1068</v>
+      </c>
+      <c r="H7">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>92</v>
+      </c>
+      <c r="H8">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
